--- a/mainexcel/squad1/МПоК-24-1.xlsx
+++ b/mainexcel/squad1/МПоК-24-1.xlsx
@@ -196,6 +196,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="5">
     <font>
       <sz val="11"/>
@@ -694,23 +695,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="5.85546875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.5703125" customWidth="1"/>
-    <col min="5" max="5" width="5.42578125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="2.7109375" customWidth="1"/>
-    <col min="7" max="7" width="2.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="17.5703125" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17" customWidth="1"/>
-    <col min="11" max="11" width="13.5703125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="2.7109375" customWidth="1"/>
-    <col min="13" max="13" width="2.28515625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
-    <col min="15" max="15" width="5.5703125" style="2" customWidth="1"/>
-    <col min="16" max="16" width="17.85546875" customWidth="1"/>
-    <col min="17" max="17" width="8.5703125" style="2" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="1" width="2.28515625"/>
+    <col min="2" max="2" customWidth="true" width="17.28515625"/>
+    <col min="3" max="3" customWidth="true" style="2" width="5.85546875"/>
+    <col min="4" max="4" customWidth="true" width="17.5703125"/>
+    <col min="5" max="5" customWidth="true" style="2" width="5.42578125"/>
+    <col min="6" max="6" customWidth="true" width="2.7109375"/>
+    <col min="7" max="7" customWidth="true" style="1" width="2.28515625"/>
+    <col min="8" max="8" customWidth="true" width="17.5703125"/>
+    <col min="9" max="9" customWidth="true" style="2" width="12.85546875"/>
+    <col min="10" max="10" customWidth="true" width="17.0"/>
+    <col min="11" max="11" customWidth="true" style="2" width="13.5703125"/>
+    <col min="12" max="12" customWidth="true" width="2.7109375"/>
+    <col min="13" max="13" customWidth="true" style="1" width="2.28515625"/>
+    <col min="14" max="14" customWidth="true" width="18.7109375"/>
+    <col min="15" max="15" customWidth="true" style="2" width="5.5703125"/>
+    <col min="16" max="16" customWidth="true" width="17.85546875"/>
+    <col min="17" max="17" customWidth="true" style="2" width="8.5703125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18.75">
@@ -1674,129 +1675,92 @@
   <mergeCells count="126">
     <mergeCell ref="N30:Q30"/>
     <mergeCell ref="N31:P31"/>
-    <mergeCell ref="M30:M31"/>
     <mergeCell ref="H30:K30"/>
     <mergeCell ref="H31:J31"/>
-    <mergeCell ref="G30:G31"/>
     <mergeCell ref="M25:Q25"/>
     <mergeCell ref="N26:Q26"/>
     <mergeCell ref="N27:P27"/>
-    <mergeCell ref="M26:M27"/>
     <mergeCell ref="N28:O28"/>
-    <mergeCell ref="M28:M29"/>
     <mergeCell ref="P28:Q28"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="B33:D33"/>
-    <mergeCell ref="A32:A33"/>
     <mergeCell ref="G25:K25"/>
     <mergeCell ref="H26:K26"/>
     <mergeCell ref="H27:J27"/>
-    <mergeCell ref="G26:G27"/>
     <mergeCell ref="H28:K28"/>
     <mergeCell ref="H29:J29"/>
-    <mergeCell ref="G28:G29"/>
     <mergeCell ref="B28:E28"/>
     <mergeCell ref="B29:D29"/>
-    <mergeCell ref="A28:A29"/>
     <mergeCell ref="B30:E30"/>
     <mergeCell ref="B31:D31"/>
-    <mergeCell ref="A30:A31"/>
     <mergeCell ref="N23:O23"/>
-    <mergeCell ref="M23:M24"/>
     <mergeCell ref="P23:Q23"/>
     <mergeCell ref="A25:E25"/>
     <mergeCell ref="B26:C26"/>
-    <mergeCell ref="A26:A27"/>
     <mergeCell ref="D26:E26"/>
     <mergeCell ref="M18:Q18"/>
     <mergeCell ref="N19:O19"/>
-    <mergeCell ref="M19:M20"/>
     <mergeCell ref="P19:Q19"/>
     <mergeCell ref="N21:Q21"/>
     <mergeCell ref="N22:P22"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="G19:G20"/>
     <mergeCell ref="J19:K19"/>
     <mergeCell ref="H21:I21"/>
-    <mergeCell ref="G21:G22"/>
     <mergeCell ref="J21:K21"/>
     <mergeCell ref="H23:I23"/>
-    <mergeCell ref="G23:G24"/>
     <mergeCell ref="J23:K23"/>
     <mergeCell ref="B21:E21"/>
     <mergeCell ref="B22:D22"/>
-    <mergeCell ref="A21:A22"/>
     <mergeCell ref="B23:E23"/>
     <mergeCell ref="B24:D24"/>
-    <mergeCell ref="A23:A24"/>
     <mergeCell ref="N15:O15"/>
-    <mergeCell ref="M15:M16"/>
     <mergeCell ref="P15:Q15"/>
     <mergeCell ref="A17:Q17"/>
     <mergeCell ref="A18:E18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="A19:A20"/>
     <mergeCell ref="D19:E19"/>
     <mergeCell ref="G18:K18"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="M10:Q10"/>
     <mergeCell ref="N11:Q11"/>
     <mergeCell ref="N12:P12"/>
-    <mergeCell ref="M11:M12"/>
     <mergeCell ref="N13:Q13"/>
     <mergeCell ref="N14:P14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="G11:G12"/>
     <mergeCell ref="H13:I13"/>
-    <mergeCell ref="G13:G14"/>
     <mergeCell ref="J13:K13"/>
     <mergeCell ref="H15:K15"/>
     <mergeCell ref="H16:J16"/>
-    <mergeCell ref="G15:G16"/>
     <mergeCell ref="B13:C13"/>
-    <mergeCell ref="A13:A14"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:D16"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="N8:Q8"/>
     <mergeCell ref="N9:P9"/>
-    <mergeCell ref="M8:M9"/>
     <mergeCell ref="A10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:D12"/>
-    <mergeCell ref="A11:A12"/>
     <mergeCell ref="G10:K10"/>
     <mergeCell ref="H11:K11"/>
     <mergeCell ref="H12:J12"/>
     <mergeCell ref="M3:Q3"/>
     <mergeCell ref="N4:O4"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="P4:Q4"/>
     <mergeCell ref="N6:Q6"/>
     <mergeCell ref="N7:P7"/>
-    <mergeCell ref="M6:M7"/>
     <mergeCell ref="H6:K6"/>
     <mergeCell ref="H7:J7"/>
-    <mergeCell ref="G6:G7"/>
     <mergeCell ref="H8:K8"/>
     <mergeCell ref="H9:J9"/>
-    <mergeCell ref="G8:G9"/>
     <mergeCell ref="B6:E6"/>
     <mergeCell ref="B7:D7"/>
-    <mergeCell ref="A6:A7"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A2:Q2"/>
     <mergeCell ref="A3:E3"/>
     <mergeCell ref="B4:E4"/>
     <mergeCell ref="B5:D5"/>
-    <mergeCell ref="A4:A5"/>
     <mergeCell ref="G3:K3"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="G4:G5"/>
     <mergeCell ref="J4:K4"/>
   </mergeCells>
   <pageMargins left="0.3" right="0.3" top="0.3" bottom="0.3" header="0.3" footer="0.3"/>
